--- a/Data/PCA_data_2020.xlsx
+++ b/Data/PCA_data_2020.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abersie1/Desktop/UNIL/semestre_4/data_description/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A67202C9-27C1-F343-9020-4DE1AF8A10F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2575CDDE-60A0-1D47-A0AD-2EB5F15BEC9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="0" windowWidth="51200" windowHeight="28800" xr2:uid="{213CE9A5-F85E-9B46-83DE-F7BCB6722DA3}"/>
+    <workbookView xWindow="28800" yWindow="0" windowWidth="51200" windowHeight="28800" xr2:uid="{198AD692-44AE-F94B-B29D-E6110A9C6A8D}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="PCA_data_2020" localSheetId="0">Feuil1!$A$1:$I$2146</definedName>
+    <definedName name="PCA_data_2020_b" localSheetId="0">Feuil1!$A$1:$I$2146</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -40,8 +40,8 @@
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
-  <connection id="1" xr16:uid="{8249816F-ACDA-7B48-9BDD-DF3F82AA2F9A}" name="PCA_data_2020" type="6" refreshedVersion="8" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/abersie1/Desktop/UNIL/semestre_4/data_description/PCA_data_2020.csv" thousands=" " tab="0" comma="1">
+  <connection id="1" xr16:uid="{26C4009C-78BD-3F40-A64C-566789FD5175}" name="PCA_data_2020_b" type="6" refreshedVersion="8" background="1" saveData="1">
+    <textPr codePage="10000" sourceFile="/Users/abersie1/Desktop/UNIL/semestre_4/data_description/PCA_data_2020_b.csv" thousands=" " tab="0" comma="1">
       <textFields count="9">
         <textField/>
         <textField/>
@@ -138,7 +138,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="PCA_data_2020" connectionId="1" xr16:uid="{ACE24150-DA87-4945-BCD2-857ABFCF79B6}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="PCA_data_2020_b" connectionId="1" xr16:uid="{C0104D44-CFF0-D247-89C1-5D43D07607D2}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -437,12 +437,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26E03027-AB4D-2B4C-8EDE-4D6E6174825C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{710F16E2-2F34-E54A-AB07-37408C5BAC78}">
   <dimension ref="A1:I2146"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
